--- a/Y3-Sem2/卒業制作演習/00_初回ガイダンス/卒業制作演習(IT)_ガントチャート.xlsx
+++ b/Y3-Sem2/卒業制作演習/00_初回ガイダンス/卒業制作演習(IT)_ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772AECA-2845-4052-936D-66A2B433A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2772AECA-2845-4052-936D-66A2B433A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86AF4B20-0CD0-40CD-AF84-BEE06184464F}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="25470" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>企画チェック</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
   </si>
   <si>
     <t>企画プレゼン</t>
@@ -2635,8 +2631,8 @@
   <dimension ref="A1:EO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="AR14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
@@ -8076,6 +8072,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="EI4:EO4"/>
+    <mergeCell ref="DU4:EA4"/>
+    <mergeCell ref="EB4:EH4"/>
+    <mergeCell ref="CS4:CY4"/>
+    <mergeCell ref="CZ4:DF4"/>
+    <mergeCell ref="DG4:DM4"/>
+    <mergeCell ref="DN4:DT4"/>
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BQ4:BW4"/>
+    <mergeCell ref="BX4:CD4"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CL4:CR4"/>
     <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F4:L4"/>
@@ -8085,18 +8093,6 @@
     <mergeCell ref="AH4:AN4"/>
     <mergeCell ref="AO4:AU4"/>
     <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CL4:CR4"/>
-    <mergeCell ref="EI4:EO4"/>
-    <mergeCell ref="DU4:EA4"/>
-    <mergeCell ref="EB4:EH4"/>
-    <mergeCell ref="CS4:CY4"/>
-    <mergeCell ref="CZ4:DF4"/>
-    <mergeCell ref="DG4:DM4"/>
-    <mergeCell ref="DN4:DT4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="F5:BI9">
@@ -8448,12 +8444,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8601,13 +8594,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8615,5 +8611,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
 </file>